--- a/capiq_data/in_process_data/IQ61036.xlsx
+++ b/capiq_data/in_process_data/IQ61036.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE8EF7-2BE4-4B1D-A392-B8F4D2FD4A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B64914-AA1C-48B9-B729-D3E8251C1BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1ac40b24-fd0e-4127-bdf2-2d31fa79a74f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"21b3fbbc-b064-4df2-b848-8e554f158c53"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>316</v>
+        <v>-371</v>
       </c>
       <c r="D2">
-        <v>6531</v>
+        <v>7228</v>
       </c>
       <c r="E2">
-        <v>2854</v>
+        <v>3456</v>
       </c>
       <c r="F2">
-        <v>1761</v>
+        <v>1951</v>
       </c>
       <c r="G2">
-        <v>8028</v>
+        <v>10266</v>
       </c>
       <c r="H2">
-        <v>25368</v>
+        <v>42109</v>
       </c>
       <c r="I2">
-        <v>2556</v>
+        <v>2145</v>
       </c>
       <c r="J2">
-        <v>8366</v>
+        <v>13903</v>
       </c>
       <c r="K2">
-        <v>210</v>
+        <v>1427</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4503</v>
+        <v>7386</v>
       </c>
       <c r="O2">
-        <v>18284</v>
+        <v>28170</v>
       </c>
       <c r="P2">
-        <v>8679</v>
+        <v>16018</v>
       </c>
       <c r="Q2">
-        <v>644</v>
+        <v>27</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>59500</v>
+        <v>112900</v>
       </c>
       <c r="T2">
-        <v>7084</v>
+        <v>13939</v>
       </c>
       <c r="U2">
-        <v>2073</v>
+        <v>1198</v>
       </c>
       <c r="V2">
-        <v>1044</v>
+        <v>550</v>
       </c>
       <c r="W2">
-        <v>-55</v>
+        <v>-120</v>
       </c>
       <c r="X2">
-        <v>-170</v>
+        <v>-657</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>316</v>
+        <v>-371</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>354</v>
+        <v>-44</v>
       </c>
       <c r="D3">
-        <v>6387</v>
+        <v>6894</v>
       </c>
       <c r="E3">
-        <v>3236</v>
+        <v>3315</v>
       </c>
       <c r="F3">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="G3">
-        <v>8488</v>
+        <v>10147</v>
       </c>
       <c r="H3">
-        <v>25595</v>
+        <v>40516</v>
       </c>
       <c r="I3">
-        <v>2541</v>
+        <v>1994</v>
       </c>
       <c r="J3">
-        <v>8163</v>
+        <v>13918</v>
       </c>
       <c r="K3">
-        <v>375</v>
+        <v>2005</v>
       </c>
       <c r="L3">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-152</v>
+        <v>-734</v>
       </c>
       <c r="N3">
-        <v>4497</v>
+        <v>6700</v>
       </c>
       <c r="O3">
-        <v>18020</v>
+        <v>27371</v>
       </c>
       <c r="P3">
-        <v>8538</v>
+        <v>15923</v>
       </c>
       <c r="Q3">
-        <v>-24</v>
+        <v>-79</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7575</v>
+        <v>13145</v>
       </c>
       <c r="U3">
-        <v>2049</v>
+        <v>1119</v>
       </c>
       <c r="V3">
-        <v>514</v>
+        <v>54</v>
       </c>
       <c r="W3">
-        <v>-82</v>
+        <v>-120</v>
       </c>
       <c r="X3">
-        <v>-280</v>
+        <v>-726</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>354</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>-313</v>
       </c>
       <c r="D4">
-        <v>6648</v>
+        <v>6686</v>
       </c>
       <c r="E4">
-        <v>3318</v>
+        <v>3185</v>
       </c>
       <c r="F4">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="G4">
-        <v>9416</v>
+        <v>9466</v>
       </c>
       <c r="H4">
-        <v>26044</v>
+        <v>39325</v>
       </c>
       <c r="I4">
-        <v>2575</v>
+        <v>1830</v>
       </c>
       <c r="J4">
-        <v>7882</v>
+        <v>14592</v>
       </c>
       <c r="K4">
-        <v>610</v>
+        <v>1271</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4821</v>
+        <v>5814</v>
       </c>
       <c r="O4">
-        <v>18075</v>
+        <v>26755</v>
       </c>
       <c r="P4">
-        <v>8492</v>
+        <v>15863</v>
       </c>
       <c r="Q4">
-        <v>350</v>
+        <v>-376</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7969</v>
+        <v>12570</v>
       </c>
       <c r="U4">
-        <v>2399</v>
+        <v>743</v>
       </c>
       <c r="V4">
-        <v>648</v>
+        <v>241</v>
       </c>
       <c r="W4">
-        <v>-115</v>
+        <v>-120</v>
       </c>
       <c r="X4">
-        <v>-81</v>
+        <v>-258</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>219</v>
+        <v>-313</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>468</v>
+        <v>-275</v>
       </c>
       <c r="D5">
-        <v>6632</v>
+        <v>6529</v>
       </c>
       <c r="E5">
-        <v>3232</v>
+        <v>3083</v>
       </c>
       <c r="F5">
-        <v>1839</v>
+        <v>1740</v>
       </c>
       <c r="G5">
-        <v>9935</v>
+        <v>9933</v>
       </c>
       <c r="H5">
-        <v>25834</v>
+        <v>39342</v>
       </c>
       <c r="I5">
-        <v>2494</v>
+        <v>1710</v>
       </c>
       <c r="J5">
-        <v>7807</v>
+        <v>15169</v>
       </c>
       <c r="K5">
-        <v>644</v>
+        <v>1203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4747</v>
+        <v>5819</v>
       </c>
       <c r="O5">
-        <v>18172</v>
+        <v>27152</v>
       </c>
       <c r="P5">
-        <v>8451</v>
+        <v>16372</v>
       </c>
       <c r="Q5">
-        <v>323</v>
+        <v>1276</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7662</v>
+        <v>12190</v>
       </c>
       <c r="U5">
-        <v>2722</v>
+        <v>2019</v>
       </c>
       <c r="V5">
-        <v>876</v>
+        <v>731</v>
       </c>
       <c r="W5">
-        <v>-115</v>
+        <v>-121</v>
       </c>
       <c r="X5">
-        <v>-129</v>
+        <v>226</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>468</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>281</v>
+        <v>-572</v>
       </c>
       <c r="D6">
-        <v>6367</v>
+        <v>6254</v>
       </c>
       <c r="E6">
-        <v>3039</v>
+        <v>2778</v>
       </c>
       <c r="F6">
-        <v>1705</v>
+        <v>1686</v>
       </c>
       <c r="G6">
-        <v>10456</v>
+        <v>8155</v>
       </c>
       <c r="H6">
-        <v>27018</v>
+        <v>37177</v>
       </c>
       <c r="I6">
-        <v>2500</v>
+        <v>1793</v>
       </c>
       <c r="J6">
-        <v>9194</v>
+        <v>13712</v>
       </c>
       <c r="K6">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4738</v>
+        <v>5341</v>
       </c>
       <c r="O6">
-        <v>20033</v>
+        <v>25061</v>
       </c>
       <c r="P6">
-        <v>9913</v>
+        <v>14669</v>
       </c>
       <c r="Q6">
-        <v>1272</v>
+        <v>-795</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>61500</v>
+        <v>100000</v>
       </c>
       <c r="T6">
-        <v>6985</v>
+        <v>12116</v>
       </c>
       <c r="U6">
-        <v>1090</v>
+        <v>1224</v>
       </c>
       <c r="V6">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="W6">
-        <v>-115</v>
+        <v>-121</v>
       </c>
       <c r="X6">
-        <v>1232</v>
+        <v>-1340</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>281</v>
+        <v>-572</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>188</v>
+        <v>-1110</v>
       </c>
       <c r="D7">
-        <v>6655</v>
+        <v>6038</v>
       </c>
       <c r="E7">
-        <v>3461</v>
+        <v>2829</v>
       </c>
       <c r="F7">
-        <v>1691</v>
+        <v>1573</v>
       </c>
       <c r="G7">
-        <v>9212</v>
+        <v>8521</v>
       </c>
       <c r="H7">
-        <v>33849</v>
+        <v>36876</v>
       </c>
       <c r="I7">
-        <v>2777</v>
+        <v>1808</v>
       </c>
       <c r="J7">
-        <v>10905</v>
+        <v>14226</v>
       </c>
       <c r="K7">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-516</v>
+        <v>-223</v>
       </c>
       <c r="N7">
-        <v>5033</v>
+        <v>4978</v>
       </c>
       <c r="O7">
-        <v>26356</v>
+        <v>25217</v>
       </c>
       <c r="P7">
-        <v>11647</v>
+        <v>14935</v>
       </c>
       <c r="Q7">
-        <v>-2706</v>
+        <v>-257</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7493</v>
+        <v>11659</v>
       </c>
       <c r="U7">
-        <v>1288</v>
+        <v>967</v>
       </c>
       <c r="V7">
-        <v>581</v>
+        <v>222</v>
       </c>
       <c r="W7">
-        <v>-115</v>
+        <v>-121</v>
       </c>
       <c r="X7">
-        <v>848</v>
+        <v>-315</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,81 +1346,81 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>188</v>
+        <v>-1110</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="D8">
-        <v>7077</v>
+        <v>6305</v>
       </c>
       <c r="E8">
-        <v>3389</v>
+        <v>2993</v>
       </c>
       <c r="F8">
-        <v>1807</v>
+        <v>1717</v>
       </c>
       <c r="G8">
-        <v>9281</v>
+        <v>8129</v>
       </c>
       <c r="H8">
-        <v>33088</v>
+        <v>36787</v>
       </c>
       <c r="I8">
-        <v>2696</v>
+        <v>2034</v>
       </c>
       <c r="J8">
-        <v>10478</v>
+        <v>14466</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4431</v>
+      </c>
+      <c r="O8">
+        <v>24908</v>
+      </c>
+      <c r="P8">
+        <v>14466</v>
+      </c>
+      <c r="Q8">
+        <v>-129</v>
+      </c>
+      <c r="R8">
+        <v>37437</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>11879</v>
+      </c>
+      <c r="U8">
         <v>838</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>5227</v>
-      </c>
-      <c r="O8">
-        <v>25994</v>
-      </c>
-      <c r="P8">
-        <v>11319</v>
-      </c>
-      <c r="Q8">
-        <v>-60</v>
-      </c>
-      <c r="R8">
-        <v>41090</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>7094</v>
-      </c>
-      <c r="U8">
-        <v>1228</v>
-      </c>
       <c r="V8">
-        <v>794</v>
+        <v>486</v>
       </c>
       <c r="W8">
-        <v>-114</v>
+        <v>-120</v>
       </c>
       <c r="X8">
-        <v>-390</v>
+        <v>-702</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>134</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="D9">
-        <v>7026</v>
+        <v>6343</v>
       </c>
       <c r="E9">
-        <v>3485</v>
+        <v>2882</v>
       </c>
       <c r="F9">
-        <v>1886</v>
+        <v>1732</v>
       </c>
       <c r="G9">
-        <v>8993</v>
+        <v>8015</v>
       </c>
       <c r="H9">
-        <v>32561</v>
+        <v>36275</v>
       </c>
       <c r="I9">
-        <v>2690</v>
+        <v>2023</v>
       </c>
       <c r="J9">
-        <v>10048</v>
+        <v>13731</v>
       </c>
       <c r="K9">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4997</v>
+        <v>5133</v>
       </c>
       <c r="O9">
-        <v>25216</v>
+        <v>24720</v>
       </c>
       <c r="P9">
-        <v>10463</v>
+        <v>14463</v>
       </c>
       <c r="Q9">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7345</v>
+        <v>11555</v>
       </c>
       <c r="U9">
-        <v>386</v>
+        <v>994</v>
       </c>
       <c r="V9">
-        <v>879</v>
+        <v>720</v>
       </c>
       <c r="W9">
-        <v>-115</v>
+        <v>-121</v>
       </c>
       <c r="X9">
-        <v>-938</v>
+        <v>-410</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>237</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>235</v>
+        <v>-130</v>
       </c>
       <c r="D10">
-        <v>7075</v>
+        <v>6290</v>
       </c>
       <c r="E10">
-        <v>3316</v>
+        <v>2780</v>
       </c>
       <c r="F10">
-        <v>1882</v>
+        <v>1698</v>
       </c>
       <c r="G10">
-        <v>8905</v>
+        <v>7738</v>
       </c>
       <c r="H10">
-        <v>32153</v>
+        <v>33792</v>
       </c>
       <c r="I10">
-        <v>2775</v>
+        <v>2014</v>
       </c>
       <c r="J10">
-        <v>9696</v>
+        <v>14297</v>
       </c>
       <c r="K10">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4998</v>
+        <v>4579</v>
       </c>
       <c r="O10">
-        <v>25517</v>
+        <v>24419</v>
       </c>
       <c r="P10">
-        <v>10141</v>
+        <v>14297</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>70000</v>
+        <v>91000</v>
       </c>
       <c r="T10">
-        <v>6636</v>
+        <v>9373</v>
       </c>
       <c r="U10">
-        <v>368</v>
+        <v>1074</v>
       </c>
       <c r="V10">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="W10">
-        <v>-132</v>
+        <v>-120</v>
       </c>
       <c r="X10">
-        <v>-315</v>
+        <v>-305</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>235</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>7090</v>
+        <v>5979</v>
       </c>
       <c r="E11">
-        <v>3577</v>
+        <v>2959</v>
       </c>
       <c r="F11">
-        <v>1870</v>
+        <v>1546</v>
       </c>
       <c r="G11">
-        <v>8981</v>
+        <v>9199</v>
       </c>
       <c r="H11">
-        <v>32698</v>
+        <v>35342</v>
       </c>
       <c r="I11">
-        <v>2902</v>
+        <v>2061</v>
       </c>
       <c r="J11">
-        <v>9495</v>
+        <v>15915</v>
       </c>
       <c r="K11">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-43</v>
+        <v>-88</v>
       </c>
       <c r="M11">
-        <v>-79</v>
+        <v>-50</v>
       </c>
       <c r="N11">
-        <v>5257</v>
+        <v>4659</v>
       </c>
       <c r="O11">
-        <v>25564</v>
+        <v>26198</v>
       </c>
       <c r="P11">
-        <v>10222</v>
+        <v>16185</v>
       </c>
       <c r="Q11">
-        <v>-368</v>
+        <v>1144</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7134</v>
+        <v>9144</v>
       </c>
       <c r="U11">
-        <v>406</v>
+        <v>2218</v>
       </c>
       <c r="V11">
-        <v>531</v>
+        <v>127</v>
       </c>
       <c r="W11">
-        <v>-132</v>
+        <v>-120</v>
       </c>
       <c r="X11">
-        <v>-106</v>
+        <v>1174</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>318</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>4570</v>
+        <v>5789</v>
       </c>
       <c r="E12">
-        <v>3685</v>
+        <v>2995</v>
       </c>
       <c r="F12">
-        <v>1596</v>
+        <v>1502</v>
       </c>
       <c r="G12">
-        <v>9268</v>
+        <v>8569</v>
       </c>
       <c r="H12">
-        <v>32545</v>
+        <v>35076</v>
       </c>
       <c r="I12">
-        <v>2926</v>
+        <v>2151</v>
       </c>
       <c r="J12">
-        <v>9057</v>
+        <v>14751</v>
       </c>
       <c r="K12">
-        <v>1068</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5677</v>
+        <v>5108</v>
       </c>
       <c r="O12">
-        <v>25520</v>
+        <v>25482</v>
       </c>
       <c r="P12">
-        <v>10125</v>
+        <v>15249</v>
       </c>
       <c r="Q12">
-        <v>271</v>
+        <v>-788</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7025</v>
+        <v>9594</v>
       </c>
       <c r="U12">
-        <v>350</v>
+        <v>1430</v>
       </c>
       <c r="V12">
-        <v>748</v>
+        <v>566</v>
       </c>
       <c r="W12">
-        <v>-134</v>
+        <v>-119</v>
       </c>
       <c r="X12">
-        <v>-201</v>
+        <v>-1209</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>259</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>382</v>
+        <v>122</v>
       </c>
       <c r="D13">
-        <v>5975</v>
+        <v>6053</v>
       </c>
       <c r="E13">
-        <v>3717</v>
+        <v>2948</v>
       </c>
       <c r="F13">
-        <v>1927</v>
+        <v>1536</v>
       </c>
       <c r="G13">
-        <v>9475</v>
+        <v>8513</v>
       </c>
       <c r="H13">
-        <v>32589</v>
+        <v>34638</v>
       </c>
       <c r="I13">
-        <v>2904</v>
+        <v>2185</v>
       </c>
       <c r="J13">
-        <v>8900</v>
+        <v>14508</v>
       </c>
       <c r="K13">
-        <v>783</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5395</v>
+        <v>5153</v>
       </c>
       <c r="O13">
-        <v>25047</v>
+        <v>25107</v>
       </c>
       <c r="P13">
-        <v>9683</v>
+        <v>15145</v>
       </c>
       <c r="Q13">
-        <v>741</v>
+        <v>134</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7542</v>
+        <v>9531</v>
       </c>
       <c r="U13">
-        <v>401</v>
+        <v>1564</v>
       </c>
       <c r="V13">
-        <v>712</v>
+        <v>609</v>
       </c>
       <c r="W13">
-        <v>-134</v>
+        <v>-119</v>
       </c>
       <c r="X13">
-        <v>-543</v>
+        <v>-79</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>382</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>6134</v>
       </c>
       <c r="E14">
-        <v>3497</v>
+        <v>2765</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="G14">
-        <v>9025</v>
+        <v>11096</v>
       </c>
       <c r="H14">
-        <v>31528</v>
+        <v>35525</v>
       </c>
       <c r="I14">
-        <v>2900</v>
+        <v>2188</v>
       </c>
       <c r="J14">
-        <v>8828</v>
+        <v>13450</v>
       </c>
       <c r="K14">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5127</v>
+        <v>7270</v>
       </c>
       <c r="O14">
-        <v>23081</v>
+        <v>25666</v>
       </c>
       <c r="P14">
-        <v>9489</v>
+        <v>15537</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>69000</v>
+        <v>83000</v>
       </c>
       <c r="T14">
-        <v>8447</v>
+        <v>9859</v>
       </c>
       <c r="U14">
-        <v>404</v>
+        <v>2363</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-95</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>5724</v>
+        <v>6138</v>
       </c>
       <c r="E15">
-        <v>3627</v>
+        <v>2996</v>
       </c>
       <c r="F15">
-        <v>1690</v>
+        <v>1518</v>
       </c>
       <c r="G15">
-        <v>8733</v>
+        <v>9415</v>
       </c>
       <c r="H15">
-        <v>30695</v>
+        <v>35243</v>
       </c>
       <c r="I15">
-        <v>2954</v>
+        <v>2284</v>
       </c>
       <c r="J15">
-        <v>8868</v>
+        <v>13806</v>
       </c>
       <c r="K15">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="M15">
-        <v>-163</v>
+        <v>-1106</v>
       </c>
       <c r="N15">
-        <v>5028</v>
+        <v>6518</v>
       </c>
       <c r="O15">
-        <v>22781</v>
+        <v>25372</v>
       </c>
       <c r="P15">
-        <v>9429</v>
+        <v>15563</v>
       </c>
       <c r="Q15">
-        <v>-461</v>
+        <v>-139</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7914</v>
+        <v>9871</v>
       </c>
       <c r="U15">
-        <v>335</v>
+        <v>2224</v>
       </c>
       <c r="V15">
-        <v>471</v>
+        <v>224</v>
       </c>
       <c r="W15">
-        <v>-153</v>
+        <v>-121</v>
       </c>
       <c r="X15">
-        <v>-563</v>
+        <v>-208</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>-95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D16">
-        <v>5899</v>
+        <v>5188</v>
       </c>
       <c r="E16">
-        <v>3671</v>
+        <v>3056</v>
       </c>
       <c r="F16">
-        <v>1839</v>
+        <v>1409</v>
       </c>
       <c r="G16">
-        <v>8751</v>
+        <v>8572</v>
       </c>
       <c r="H16">
-        <v>30802</v>
+        <v>34144</v>
       </c>
       <c r="I16">
-        <v>2918</v>
+        <v>2304</v>
       </c>
       <c r="J16">
-        <v>8997</v>
+        <v>13711</v>
       </c>
       <c r="K16">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5393</v>
+        <v>5386</v>
       </c>
       <c r="O16">
-        <v>23111</v>
+        <v>24149</v>
       </c>
       <c r="P16">
-        <v>9949</v>
+        <v>14559</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-362</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7691</v>
+        <v>9995</v>
       </c>
       <c r="U16">
-        <v>403</v>
+        <v>1862</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-1161</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>355</v>
+        <v>-470</v>
       </c>
       <c r="D17">
-        <v>6051</v>
+        <v>6016</v>
       </c>
       <c r="E17">
-        <v>3056</v>
+        <v>3239</v>
       </c>
       <c r="F17">
-        <v>1996</v>
+        <v>1604</v>
       </c>
       <c r="G17">
-        <v>8139</v>
+        <v>9991</v>
       </c>
       <c r="H17">
-        <v>29403</v>
+        <v>34643</v>
       </c>
       <c r="I17">
-        <v>2619</v>
+        <v>2208</v>
       </c>
       <c r="J17">
-        <v>8989</v>
+        <v>14434</v>
       </c>
       <c r="K17">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4870</v>
+        <v>5953</v>
       </c>
       <c r="O17">
-        <v>22426</v>
+        <v>25191</v>
       </c>
       <c r="P17">
-        <v>9713</v>
+        <v>15049</v>
       </c>
       <c r="Q17">
-        <v>425</v>
+        <v>-305</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6977</v>
+        <v>9452</v>
       </c>
       <c r="U17">
-        <v>473</v>
+        <v>1828</v>
       </c>
       <c r="V17">
-        <v>933</v>
+        <v>242</v>
       </c>
       <c r="W17">
-        <v>-149</v>
+        <v>-122</v>
       </c>
       <c r="X17">
-        <v>-629</v>
+        <v>-240</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>355</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>6017</v>
       </c>
       <c r="E18">
-        <v>2860</v>
+        <v>2743</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1603</v>
       </c>
       <c r="G18">
-        <v>7959</v>
+        <v>12586</v>
       </c>
       <c r="H18">
-        <v>28684</v>
+        <v>34217</v>
       </c>
       <c r="I18">
-        <v>2664</v>
+        <v>2026</v>
       </c>
       <c r="J18">
-        <v>8631</v>
+        <v>13632</v>
       </c>
       <c r="K18">
-        <v>424</v>
+        <v>65</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4909</v>
+        <v>7334</v>
       </c>
       <c r="O18">
-        <v>23421</v>
+        <v>25775</v>
       </c>
       <c r="P18">
-        <v>9373</v>
+        <v>13854</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>58000</v>
+        <v>79400</v>
       </c>
       <c r="T18">
-        <v>5263</v>
+        <v>8442</v>
       </c>
       <c r="U18">
-        <v>401</v>
+        <v>2180</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1451</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-826</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>5517</v>
+        <v>5957</v>
       </c>
       <c r="E19">
-        <v>2821</v>
+        <v>3180</v>
       </c>
       <c r="F19">
-        <v>1673</v>
+        <v>1542</v>
       </c>
       <c r="G19">
-        <v>7660</v>
+        <v>8689</v>
       </c>
       <c r="H19">
-        <v>27967</v>
+        <v>33303</v>
       </c>
       <c r="I19">
-        <v>2678</v>
+        <v>2174</v>
       </c>
       <c r="J19">
-        <v>8461</v>
+        <v>13526</v>
       </c>
       <c r="K19">
-        <v>557</v>
+        <v>342</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="M19">
-        <v>-280</v>
+        <v>-812</v>
       </c>
       <c r="N19">
-        <v>4776</v>
+        <v>4529</v>
       </c>
       <c r="O19">
-        <v>22964</v>
+        <v>23509</v>
       </c>
       <c r="P19">
-        <v>9125</v>
+        <v>13868</v>
       </c>
       <c r="Q19">
-        <v>-305</v>
+        <v>-1067</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5003</v>
+        <v>9794</v>
       </c>
       <c r="U19">
-        <v>342</v>
+        <v>1529</v>
       </c>
       <c r="V19">
-        <v>638</v>
+        <v>155</v>
       </c>
       <c r="W19">
-        <v>-169</v>
+        <v>-123</v>
       </c>
       <c r="X19">
-        <v>-546</v>
+        <v>-942</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>313</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>5714</v>
+        <v>5768</v>
       </c>
       <c r="E20">
-        <v>2878</v>
+        <v>3195</v>
       </c>
       <c r="F20">
-        <v>1746</v>
+        <v>1465</v>
       </c>
       <c r="G20">
-        <v>7727</v>
+        <v>8031</v>
       </c>
       <c r="H20">
-        <v>28178</v>
+        <v>32546</v>
       </c>
       <c r="I20">
-        <v>2744</v>
+        <v>2197</v>
       </c>
       <c r="J20">
-        <v>9017</v>
+        <v>12812</v>
       </c>
       <c r="K20">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5104</v>
+        <v>4601</v>
       </c>
       <c r="O20">
-        <v>23150</v>
+        <v>22953</v>
       </c>
       <c r="P20">
-        <v>9926</v>
+        <v>13383</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>-278</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5028</v>
+        <v>9593</v>
       </c>
       <c r="U20">
-        <v>393</v>
+        <v>1251</v>
       </c>
       <c r="V20">
-        <v>115</v>
+        <v>424</v>
       </c>
       <c r="W20">
-        <v>-168</v>
+        <v>-123</v>
       </c>
       <c r="X20">
-        <v>255</v>
+        <v>-503</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>227</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>220</v>
+        <v>1023</v>
       </c>
       <c r="D21">
-        <v>5691</v>
+        <v>5925</v>
       </c>
       <c r="E21">
-        <v>2631</v>
+        <v>2918</v>
       </c>
       <c r="F21">
-        <v>1800</v>
+        <v>1481</v>
       </c>
       <c r="G21">
-        <v>12754</v>
+        <v>7063</v>
       </c>
       <c r="H21">
-        <v>31981</v>
+        <v>28451</v>
       </c>
       <c r="I21">
-        <v>2096</v>
+        <v>2038</v>
       </c>
       <c r="J21">
-        <v>8887</v>
+        <v>10772</v>
       </c>
       <c r="K21">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9547</v>
+        <v>4363</v>
       </c>
       <c r="O21">
-        <v>27511</v>
+        <v>19381</v>
       </c>
       <c r="P21">
-        <v>9640</v>
+        <v>11568</v>
       </c>
       <c r="Q21">
-        <v>-486</v>
+        <v>-159</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4470</v>
+        <v>9070</v>
       </c>
       <c r="U21">
-        <v>493</v>
+        <v>1092</v>
       </c>
       <c r="V21">
-        <v>837</v>
+        <v>377</v>
       </c>
       <c r="W21">
-        <v>-166</v>
+        <v>-122</v>
       </c>
       <c r="X21">
-        <v>-673</v>
+        <v>-1414</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>220</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>178</v>
+        <v>-77</v>
       </c>
       <c r="D22">
-        <v>5443</v>
+        <v>4050</v>
       </c>
       <c r="E22">
-        <v>2480</v>
+        <v>2416</v>
       </c>
       <c r="F22">
-        <v>1678</v>
+        <v>878</v>
       </c>
       <c r="G22">
-        <v>6477</v>
+        <v>11759</v>
       </c>
       <c r="H22">
-        <v>30531</v>
+        <v>28771</v>
       </c>
       <c r="I22">
-        <v>2078</v>
+        <v>1771</v>
       </c>
       <c r="J22">
-        <v>8844</v>
+        <v>11019</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3924</v>
+        <v>4955</v>
       </c>
       <c r="O22">
-        <v>26622</v>
+        <v>20235</v>
       </c>
       <c r="P22">
-        <v>9270</v>
+        <v>12197</v>
       </c>
       <c r="Q22">
-        <v>-54</v>
+        <v>549</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>56000</v>
+        <v>68700</v>
       </c>
       <c r="T22">
-        <v>3909</v>
+        <v>8536</v>
       </c>
       <c r="U22">
-        <v>312</v>
+        <v>1641</v>
       </c>
       <c r="V22">
-        <v>990</v>
+        <v>554</v>
       </c>
       <c r="W22">
-        <v>-182</v>
+        <v>-122</v>
       </c>
       <c r="X22">
-        <v>-637</v>
+        <v>482</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>178</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>334</v>
+        <v>-1236</v>
       </c>
       <c r="D23">
-        <v>5110</v>
+        <v>5526</v>
       </c>
       <c r="E23">
-        <v>2418</v>
+        <v>2923</v>
       </c>
       <c r="F23">
-        <v>1499</v>
+        <v>1358</v>
       </c>
       <c r="G23">
-        <v>6792</v>
+        <v>8096</v>
       </c>
       <c r="H23">
-        <v>31043</v>
+        <v>26636</v>
       </c>
       <c r="I23">
-        <v>2065</v>
+        <v>1951</v>
       </c>
       <c r="J23">
-        <v>8824</v>
+        <v>10562</v>
       </c>
       <c r="K23">
-        <v>551</v>
+        <v>894</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="M23">
-        <v>-322</v>
+        <v>-743</v>
       </c>
       <c r="N23">
-        <v>4098</v>
+        <v>4792</v>
       </c>
       <c r="O23">
-        <v>26783</v>
+        <v>19374</v>
       </c>
       <c r="P23">
-        <v>9375</v>
+        <v>11456</v>
       </c>
       <c r="Q23">
-        <v>105</v>
+        <v>-932</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4260</v>
+        <v>7262</v>
       </c>
       <c r="U23">
-        <v>276</v>
+        <v>709</v>
       </c>
       <c r="V23">
-        <v>620</v>
+        <v>246</v>
       </c>
       <c r="W23">
-        <v>-181</v>
+        <v>-123</v>
       </c>
       <c r="X23">
-        <v>-164</v>
+        <v>-891</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,81 +2674,81 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>334</v>
+        <v>-1236</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <v>5322</v>
+        <v>5716</v>
       </c>
       <c r="E24">
-        <v>2573</v>
+        <v>2987</v>
       </c>
       <c r="F24">
-        <v>1210</v>
+        <v>1445</v>
       </c>
       <c r="G24">
-        <v>6871</v>
+        <v>7721</v>
       </c>
       <c r="H24">
-        <v>31392</v>
+        <v>26154</v>
       </c>
       <c r="I24">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="J24">
-        <v>8820</v>
+        <v>9038</v>
       </c>
       <c r="K24">
+        <v>1774</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>5585</v>
+      </c>
+      <c r="O24">
+        <v>18853</v>
+      </c>
+      <c r="P24">
+        <v>10812</v>
+      </c>
+      <c r="Q24">
+        <v>-435</v>
+      </c>
+      <c r="R24">
+        <v>38898</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>7301</v>
+      </c>
+      <c r="U24">
+        <v>274</v>
+      </c>
+      <c r="V24">
         <v>626</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>4082</v>
-      </c>
-      <c r="O24">
-        <v>27346</v>
-      </c>
-      <c r="P24">
-        <v>9463</v>
-      </c>
-      <c r="Q24">
-        <v>99</v>
-      </c>
-      <c r="R24">
-        <v>42551</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>4046</v>
-      </c>
-      <c r="U24">
-        <v>383</v>
-      </c>
-      <c r="V24">
-        <v>605</v>
-      </c>
       <c r="W24">
-        <v>-181</v>
+        <v>-124</v>
       </c>
       <c r="X24">
-        <v>-190</v>
+        <v>-799</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="D25">
-        <v>5266</v>
+        <v>5429</v>
       </c>
       <c r="E25">
-        <v>2594</v>
+        <v>3048</v>
       </c>
       <c r="F25">
-        <v>1644</v>
+        <v>1523</v>
       </c>
       <c r="G25">
-        <v>8103</v>
+        <v>6784</v>
       </c>
       <c r="H25">
-        <v>32601</v>
+        <v>24689</v>
       </c>
       <c r="I25">
-        <v>2031</v>
+        <v>2000</v>
       </c>
       <c r="J25">
-        <v>10823</v>
+        <v>9051</v>
       </c>
       <c r="K25">
-        <v>78</v>
+        <v>1399</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3541</v>
+        <v>5035</v>
       </c>
       <c r="O25">
-        <v>28372</v>
+        <v>18630</v>
       </c>
       <c r="P25">
-        <v>10901</v>
+        <v>10450</v>
       </c>
       <c r="Q25">
-        <v>1308</v>
+        <v>462</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4229</v>
+        <v>6059</v>
       </c>
       <c r="U25">
-        <v>462</v>
+        <v>736</v>
       </c>
       <c r="V25">
-        <v>341</v>
+        <v>766</v>
       </c>
       <c r="W25">
-        <v>-181</v>
+        <v>-125</v>
       </c>
       <c r="X25">
-        <v>1232</v>
+        <v>-1969</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>312</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5324</v>
       </c>
       <c r="E26">
-        <v>2612</v>
+        <v>2704</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1421</v>
       </c>
       <c r="G26">
-        <v>6670</v>
+        <v>8637</v>
       </c>
       <c r="H26">
-        <v>33093</v>
+        <v>24034</v>
       </c>
       <c r="I26">
-        <v>2199</v>
+        <v>1907</v>
       </c>
       <c r="J26">
-        <v>11075</v>
+        <v>6531</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4069</v>
+        <v>4641</v>
       </c>
       <c r="O26">
-        <v>28734</v>
+        <v>15858</v>
       </c>
       <c r="P26">
-        <v>11314</v>
+        <v>7223</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>55000</v>
+        <v>60600</v>
       </c>
       <c r="T26">
-        <v>4359</v>
+        <v>8176</v>
       </c>
       <c r="U26">
-        <v>1033</v>
+        <v>1624</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>-415</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="D27">
-        <v>5132</v>
+        <v>5217</v>
       </c>
       <c r="E27">
-        <v>2832</v>
+        <v>2924</v>
       </c>
       <c r="F27">
-        <v>1494</v>
+        <v>1366</v>
       </c>
       <c r="G27">
-        <v>6721</v>
+        <v>8077</v>
       </c>
       <c r="H27">
-        <v>33301</v>
+        <v>23866</v>
       </c>
       <c r="I27">
-        <v>2380</v>
+        <v>1911</v>
       </c>
       <c r="J27">
-        <v>10823</v>
+        <v>6358</v>
       </c>
       <c r="K27">
-        <v>310</v>
+        <v>542</v>
       </c>
       <c r="L27">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-227</v>
+        <v>-362</v>
       </c>
       <c r="N27">
-        <v>4267</v>
+        <v>3907</v>
       </c>
       <c r="O27">
-        <v>28707</v>
+        <v>15705</v>
       </c>
       <c r="P27">
-        <v>11277</v>
+        <v>6900</v>
       </c>
       <c r="Q27">
-        <v>-35</v>
+        <v>766</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4594</v>
+        <v>8161</v>
       </c>
       <c r="U27">
-        <v>271</v>
+        <v>2390</v>
       </c>
       <c r="V27">
-        <v>633</v>
+        <v>252</v>
       </c>
       <c r="W27">
-        <v>-191</v>
+        <v>-114</v>
       </c>
       <c r="X27">
-        <v>-284</v>
+        <v>-827</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>209</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D28">
-        <v>5383</v>
+        <v>5291</v>
       </c>
       <c r="E28">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="F28">
-        <v>1634</v>
+        <v>1410</v>
       </c>
       <c r="G28">
-        <v>7237</v>
+        <v>7424</v>
       </c>
       <c r="H28">
-        <v>33877</v>
+        <v>23152</v>
       </c>
       <c r="I28">
-        <v>2362</v>
+        <v>1990</v>
       </c>
       <c r="J28">
-        <v>10392</v>
+        <v>6219</v>
       </c>
       <c r="K28">
-        <v>240</v>
+        <v>525</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>5002</v>
+        <v>3889</v>
       </c>
       <c r="O28">
-        <v>29312</v>
+        <v>15306</v>
       </c>
       <c r="P28">
-        <v>11216</v>
+        <v>6744</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>-709</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4565</v>
+        <v>7846</v>
       </c>
       <c r="U28">
-        <v>288</v>
+        <v>1681</v>
       </c>
       <c r="V28">
-        <v>645</v>
+        <v>383</v>
       </c>
       <c r="W28">
-        <v>-191</v>
+        <v>-109</v>
       </c>
       <c r="X28">
-        <v>-266</v>
+        <v>-862</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>395</v>
+        <v>217</v>
       </c>
       <c r="D29">
-        <v>5517</v>
+        <v>5541</v>
       </c>
       <c r="E29">
-        <v>3098</v>
+        <v>3080</v>
       </c>
       <c r="F29">
-        <v>1804</v>
+        <v>1455</v>
       </c>
       <c r="G29">
-        <v>7211</v>
+        <v>7505</v>
       </c>
       <c r="H29">
-        <v>33813</v>
+        <v>23715</v>
       </c>
       <c r="I29">
-        <v>2408</v>
+        <v>2070</v>
       </c>
       <c r="J29">
-        <v>11373</v>
+        <v>6191</v>
       </c>
       <c r="K29">
-        <v>445</v>
+        <v>586</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4869</v>
+        <v>4029</v>
       </c>
       <c r="O29">
-        <v>28880</v>
+        <v>15538</v>
       </c>
       <c r="P29">
-        <v>12331</v>
+        <v>6777</v>
       </c>
       <c r="Q29">
-        <v>-43</v>
+        <v>21</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4933</v>
+        <v>8177</v>
       </c>
       <c r="U29">
-        <v>335</v>
+        <v>1702</v>
       </c>
       <c r="V29">
-        <v>-709</v>
+        <v>716</v>
       </c>
       <c r="W29">
-        <v>-191</v>
+        <v>-107</v>
       </c>
       <c r="X29">
-        <v>930</v>
+        <v>-159</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>395</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5841</v>
       </c>
       <c r="E30">
-        <v>3017</v>
+        <v>3152</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1599</v>
       </c>
       <c r="G30">
-        <v>8277</v>
+        <v>6735</v>
       </c>
       <c r="H30">
-        <v>33903</v>
+        <v>24159</v>
       </c>
       <c r="I30">
-        <v>2458</v>
+        <v>2145</v>
       </c>
       <c r="J30">
-        <v>10846</v>
+        <v>6353</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,120 +3216,120 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>5102</v>
+        <v>3842</v>
       </c>
       <c r="O30">
-        <v>27362</v>
+        <v>15259</v>
       </c>
       <c r="P30">
-        <v>11157</v>
+        <v>6620</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-797</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>56000</v>
+        <v>51500</v>
       </c>
       <c r="T30">
-        <v>6541</v>
+        <v>8900</v>
       </c>
       <c r="U30">
-        <v>1018</v>
+        <v>905</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-106</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>-404</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-578</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>729</v>
+        <v>133</v>
       </c>
       <c r="D31">
-        <v>5621</v>
+        <v>5668</v>
       </c>
       <c r="E31">
-        <v>3505</v>
+        <v>3206</v>
       </c>
       <c r="F31">
-        <v>1673</v>
+        <v>1407</v>
       </c>
       <c r="G31">
-        <v>7260</v>
+        <v>6712</v>
       </c>
       <c r="H31">
-        <v>34030</v>
+        <v>24355</v>
       </c>
       <c r="I31">
-        <v>2534</v>
+        <v>2184</v>
       </c>
       <c r="J31">
-        <v>10759</v>
+        <v>6037</v>
       </c>
       <c r="K31">
-        <v>375</v>
+        <v>727</v>
       </c>
       <c r="L31">
-        <v>-17</v>
+        <v>-39</v>
       </c>
       <c r="M31">
-        <v>-34</v>
+        <v>-26</v>
       </c>
       <c r="N31">
-        <v>4465</v>
+        <v>4145</v>
       </c>
       <c r="O31">
-        <v>26765</v>
+        <v>15122</v>
       </c>
       <c r="P31">
-        <v>11346</v>
+        <v>6764</v>
       </c>
       <c r="Q31">
-        <v>123</v>
+        <v>-25</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7265</v>
+        <v>9233</v>
       </c>
       <c r="U31">
-        <v>1141</v>
+        <v>880</v>
       </c>
       <c r="V31">
-        <v>663</v>
+        <v>434</v>
       </c>
       <c r="W31">
-        <v>-197</v>
+        <v>-112</v>
       </c>
       <c r="X31">
-        <v>-56</v>
+        <v>-140</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>729</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>405</v>
+        <v>227</v>
       </c>
       <c r="D32">
-        <v>5833</v>
+        <v>5807</v>
       </c>
       <c r="E32">
-        <v>3611</v>
+        <v>3284</v>
       </c>
       <c r="F32">
-        <v>1911</v>
+        <v>1502</v>
       </c>
       <c r="G32">
-        <v>7272</v>
+        <v>10019</v>
       </c>
       <c r="H32">
-        <v>33796</v>
+        <v>27973</v>
       </c>
       <c r="I32">
-        <v>2478</v>
+        <v>2261</v>
       </c>
       <c r="J32">
-        <v>10805</v>
+        <v>8915</v>
       </c>
       <c r="K32">
-        <v>545</v>
+        <v>757</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4618</v>
+        <v>4338</v>
       </c>
       <c r="O32">
-        <v>26932</v>
+        <v>18225</v>
       </c>
       <c r="P32">
-        <v>11489</v>
+        <v>9672</v>
       </c>
       <c r="Q32">
-        <v>-68</v>
+        <v>3099</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6864</v>
+        <v>9748</v>
       </c>
       <c r="U32">
-        <v>1073</v>
+        <v>3979</v>
       </c>
       <c r="V32">
-        <v>801</v>
+        <v>576</v>
       </c>
       <c r="W32">
-        <v>-196</v>
+        <v>-106</v>
       </c>
       <c r="X32">
-        <v>-354</v>
+        <v>2813</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AA32">
-        <v>405</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>562</v>
+        <v>149</v>
       </c>
       <c r="D33">
-        <v>5901</v>
+        <v>6808</v>
       </c>
       <c r="E33">
-        <v>3716</v>
+        <v>3864</v>
       </c>
       <c r="F33">
-        <v>2014</v>
+        <v>1654</v>
       </c>
       <c r="G33">
-        <v>7318</v>
+        <v>7890</v>
       </c>
       <c r="H33">
-        <v>33803</v>
+        <v>30169</v>
       </c>
       <c r="I33">
-        <v>2510</v>
+        <v>2532</v>
       </c>
       <c r="J33">
-        <v>10700</v>
+        <v>11232</v>
       </c>
       <c r="K33">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4603</v>
+        <v>4955</v>
       </c>
       <c r="O33">
-        <v>26745</v>
+        <v>21165</v>
       </c>
       <c r="P33">
-        <v>11255</v>
+        <v>12032</v>
       </c>
       <c r="Q33">
-        <v>-47</v>
+        <v>-3208</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7058</v>
+        <v>9004</v>
       </c>
       <c r="U33">
-        <v>1026</v>
+        <v>771</v>
       </c>
       <c r="V33">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="W33">
-        <v>-195</v>
+        <v>-103</v>
       </c>
       <c r="X33">
-        <v>-636</v>
+        <v>2230</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>562</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>316</v>
+        <v>-1791</v>
       </c>
       <c r="D34">
-        <v>5951</v>
+        <v>6546</v>
       </c>
       <c r="E34">
-        <v>3644</v>
+        <v>3288</v>
       </c>
       <c r="F34">
-        <v>2153</v>
+        <v>1563</v>
       </c>
       <c r="G34">
-        <v>6996</v>
+        <v>7360</v>
       </c>
       <c r="H34">
-        <v>33576</v>
+        <v>26913</v>
       </c>
       <c r="I34">
-        <v>2413</v>
+        <v>2119</v>
       </c>
       <c r="J34">
-        <v>9952</v>
+        <v>11293</v>
       </c>
       <c r="K34">
-        <v>465</v>
+        <v>260</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4694</v>
+        <v>4755</v>
       </c>
       <c r="O34">
-        <v>26193</v>
+        <v>22512</v>
       </c>
       <c r="P34">
-        <v>10654</v>
+        <v>12121</v>
       </c>
       <c r="Q34">
-        <v>-437</v>
+        <v>373</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>53000</v>
+        <v>61700</v>
       </c>
       <c r="T34">
-        <v>7383</v>
+        <v>4401</v>
       </c>
       <c r="U34">
-        <v>589</v>
+        <v>1144</v>
       </c>
       <c r="V34">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="W34">
-        <v>-201</v>
+        <v>-107</v>
       </c>
       <c r="X34">
-        <v>-1000</v>
+        <v>-44</v>
       </c>
       <c r="Y34">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>316</v>
+        <v>-1791</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>424</v>
+        <v>257</v>
       </c>
       <c r="D35">
-        <v>5643</v>
+        <v>5668</v>
       </c>
       <c r="E35">
-        <v>3596</v>
+        <v>3455</v>
       </c>
       <c r="F35">
-        <v>1714</v>
+        <v>1397</v>
       </c>
       <c r="G35">
-        <v>7062</v>
+        <v>7137</v>
       </c>
       <c r="H35">
-        <v>34178</v>
+        <v>26219</v>
       </c>
       <c r="I35">
-        <v>2518</v>
+        <v>1915</v>
       </c>
       <c r="J35">
-        <v>9875</v>
+        <v>10959</v>
       </c>
       <c r="K35">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L35">
-        <v>-25</v>
+        <v>-80</v>
       </c>
       <c r="M35">
-        <v>-142</v>
+        <v>-1036</v>
       </c>
       <c r="N35">
-        <v>4953</v>
+        <v>4351</v>
       </c>
       <c r="O35">
-        <v>26709</v>
+        <v>21843</v>
       </c>
       <c r="P35">
-        <v>11192</v>
+        <v>11495</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>-189</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7469</v>
+        <v>4376</v>
       </c>
       <c r="U35">
-        <v>641</v>
+        <v>955</v>
       </c>
       <c r="V35">
-        <v>733</v>
+        <v>794</v>
       </c>
       <c r="W35">
-        <v>-201</v>
+        <v>-108</v>
       </c>
       <c r="X35">
-        <v>-389</v>
+        <v>-759</v>
       </c>
       <c r="Y35">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>424</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="D36">
-        <v>5667</v>
+        <v>5802</v>
       </c>
       <c r="E36">
-        <v>3569</v>
+        <v>3312</v>
       </c>
       <c r="F36">
-        <v>1766</v>
+        <v>1539</v>
       </c>
       <c r="G36">
-        <v>7388</v>
+        <v>7549</v>
       </c>
       <c r="H36">
-        <v>34347</v>
+        <v>26640</v>
       </c>
       <c r="I36">
-        <v>2498</v>
+        <v>1980</v>
       </c>
       <c r="J36">
-        <v>9962</v>
+        <v>10531</v>
       </c>
       <c r="K36">
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5049</v>
+        <v>3950</v>
       </c>
       <c r="O36">
-        <v>26848</v>
+        <v>21561</v>
       </c>
       <c r="P36">
-        <v>11138</v>
+        <v>10917</v>
       </c>
       <c r="Q36">
-        <v>146</v>
+        <v>699</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>7499</v>
+        <v>5079</v>
       </c>
       <c r="U36">
-        <v>787</v>
+        <v>1654</v>
       </c>
       <c r="V36">
-        <v>1067</v>
+        <v>1395</v>
       </c>
       <c r="W36">
-        <v>-197</v>
+        <v>-10</v>
       </c>
       <c r="X36">
-        <v>-487</v>
+        <v>-617</v>
       </c>
       <c r="Y36">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>292</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="D37">
-        <v>5568</v>
+        <v>5919</v>
       </c>
       <c r="E37">
-        <v>3443</v>
+        <v>3080</v>
       </c>
       <c r="F37">
-        <v>1796</v>
+        <v>1636</v>
       </c>
       <c r="G37">
-        <v>7051</v>
+        <v>7517</v>
       </c>
       <c r="H37">
-        <v>33848</v>
+        <v>26681</v>
       </c>
       <c r="I37">
-        <v>2349</v>
+        <v>2066</v>
       </c>
       <c r="J37">
-        <v>9866</v>
+        <v>9259</v>
       </c>
       <c r="K37">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4729</v>
+        <v>4316</v>
       </c>
       <c r="O37">
-        <v>26392</v>
+        <v>20797</v>
       </c>
       <c r="P37">
-        <v>10787</v>
+        <v>9658</v>
       </c>
       <c r="Q37">
-        <v>-90</v>
+        <v>-2</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>7456</v>
+        <v>5884</v>
       </c>
       <c r="U37">
-        <v>697</v>
+        <v>1652</v>
       </c>
       <c r="V37">
-        <v>882</v>
+        <v>1381</v>
       </c>
       <c r="W37">
-        <v>-197</v>
+        <v>-11</v>
       </c>
       <c r="X37">
-        <v>-671</v>
+        <v>-1302</v>
       </c>
       <c r="Y37">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>344</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>165</v>
+        <v>-101</v>
       </c>
       <c r="D38">
-        <v>5498</v>
+        <v>5977</v>
       </c>
       <c r="E38">
-        <v>3413</v>
+        <v>2476</v>
       </c>
       <c r="F38">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="G38">
-        <v>6639</v>
+        <v>7551</v>
       </c>
       <c r="H38">
-        <v>33471</v>
+        <v>25548</v>
       </c>
       <c r="I38">
-        <v>2423</v>
+        <v>2058</v>
       </c>
       <c r="J38">
-        <v>9509</v>
+        <v>8755</v>
       </c>
       <c r="K38">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>8646</v>
+        <v>4012</v>
       </c>
       <c r="O38">
-        <v>25753</v>
+        <v>19293</v>
       </c>
       <c r="P38">
-        <v>10203</v>
+        <v>9082</v>
       </c>
       <c r="Q38">
-        <v>-186</v>
+        <v>240</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>51000</v>
+        <v>56100</v>
       </c>
       <c r="T38">
-        <v>7718</v>
+        <v>6255</v>
       </c>
       <c r="U38">
-        <v>511</v>
+        <v>1892</v>
       </c>
       <c r="V38">
-        <v>928</v>
+        <v>1085</v>
       </c>
       <c r="W38">
-        <v>-201</v>
+        <v>-11</v>
       </c>
       <c r="X38">
-        <v>-842</v>
+        <v>-698</v>
       </c>
       <c r="Y38">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>165</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-141</v>
+        <v>-162</v>
       </c>
       <c r="D39">
-        <v>5352</v>
+        <v>5807</v>
       </c>
       <c r="E39">
-        <v>3382</v>
+        <v>2863</v>
       </c>
       <c r="F39">
-        <v>1606</v>
+        <v>1343</v>
       </c>
       <c r="G39">
-        <v>7215</v>
+        <v>7549</v>
       </c>
       <c r="H39">
-        <v>33215</v>
+        <v>25142</v>
       </c>
       <c r="I39">
-        <v>2379</v>
+        <v>2217</v>
       </c>
       <c r="J39">
-        <v>9476</v>
+        <v>8610</v>
       </c>
       <c r="K39">
-        <v>557</v>
+        <v>358</v>
       </c>
       <c r="L39">
-        <v>-9</v>
+        <v>-27</v>
       </c>
       <c r="M39">
-        <v>-136</v>
+        <v>-120</v>
       </c>
       <c r="N39">
-        <v>9342</v>
+        <v>4083</v>
       </c>
       <c r="O39">
-        <v>26354</v>
+        <v>19090</v>
       </c>
       <c r="P39">
-        <v>10650</v>
+        <v>8984</v>
       </c>
       <c r="Q39">
-        <v>728</v>
+        <v>-143</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>6861</v>
+        <v>6052</v>
       </c>
       <c r="U39">
-        <v>1239</v>
+        <v>1749</v>
       </c>
       <c r="V39">
-        <v>649</v>
+        <v>159</v>
       </c>
       <c r="W39">
-        <v>-202</v>
+        <v>-11</v>
       </c>
       <c r="X39">
-        <v>165</v>
+        <v>-149</v>
       </c>
       <c r="Y39">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-141</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="D40">
-        <v>4866</v>
+        <v>6121</v>
       </c>
       <c r="E40">
-        <v>3173</v>
+        <v>3031</v>
       </c>
       <c r="F40">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="G40">
-        <v>6599</v>
+        <v>7729</v>
       </c>
       <c r="H40">
-        <v>32519</v>
+        <v>25047</v>
       </c>
       <c r="I40">
-        <v>2206</v>
+        <v>2307</v>
       </c>
       <c r="J40">
-        <v>9348</v>
+        <v>8582</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>8330</v>
+        <v>4166</v>
       </c>
       <c r="O40">
-        <v>25459</v>
+        <v>19106</v>
       </c>
       <c r="P40">
-        <v>9893</v>
+        <v>8947</v>
       </c>
       <c r="Q40">
-        <v>-392</v>
+        <v>122</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7060</v>
+        <v>5941</v>
       </c>
       <c r="U40">
-        <v>847</v>
+        <v>1871</v>
       </c>
       <c r="V40">
-        <v>890</v>
+        <v>641</v>
       </c>
       <c r="W40">
-        <v>-201</v>
+        <v>-55</v>
       </c>
       <c r="X40">
-        <v>-982</v>
+        <v>-143</v>
       </c>
       <c r="Y40">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>266</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>204</v>
+        <v>397</v>
       </c>
       <c r="D41">
-        <v>5123</v>
+        <v>6720</v>
       </c>
       <c r="E41">
-        <v>3177</v>
+        <v>3306</v>
       </c>
       <c r="F41">
-        <v>1582</v>
+        <v>1962</v>
       </c>
       <c r="G41">
-        <v>11288</v>
+        <v>7808</v>
       </c>
       <c r="H41">
-        <v>31840</v>
+        <v>25089</v>
       </c>
       <c r="I41">
-        <v>2226</v>
+        <v>2556</v>
       </c>
       <c r="J41">
-        <v>8442</v>
+        <v>8438</v>
       </c>
       <c r="K41">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>8476</v>
+        <v>4518</v>
       </c>
       <c r="O41">
-        <v>24744</v>
+        <v>18451</v>
       </c>
       <c r="P41">
-        <v>9131</v>
+        <v>8750</v>
       </c>
       <c r="Q41">
-        <v>-169</v>
+        <v>-442</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>7096</v>
+        <v>6638</v>
       </c>
       <c r="U41">
-        <v>678</v>
+        <v>1429</v>
       </c>
       <c r="V41">
-        <v>735</v>
+        <v>-213</v>
       </c>
       <c r="W41">
-        <v>-202</v>
+        <v>-54</v>
       </c>
       <c r="X41">
-        <v>-1042</v>
+        <v>-126</v>
       </c>
       <c r="Y41">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>204</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>316</v>
+      </c>
+      <c r="D42">
+        <v>6531</v>
+      </c>
+      <c r="E42">
+        <v>2854</v>
+      </c>
+      <c r="F42">
+        <v>1761</v>
+      </c>
+      <c r="G42">
+        <v>8028</v>
+      </c>
+      <c r="H42">
+        <v>25368</v>
+      </c>
+      <c r="I42">
+        <v>2556</v>
+      </c>
+      <c r="J42">
+        <v>8366</v>
+      </c>
+      <c r="K42">
+        <v>210</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>4503</v>
+      </c>
+      <c r="O42">
+        <v>18284</v>
+      </c>
+      <c r="P42">
+        <v>8679</v>
+      </c>
+      <c r="Q42">
+        <v>644</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>59500</v>
+      </c>
+      <c r="T42">
+        <v>7084</v>
+      </c>
+      <c r="U42">
+        <v>2073</v>
+      </c>
+      <c r="V42">
+        <v>1044</v>
+      </c>
+      <c r="W42">
+        <v>-55</v>
+      </c>
+      <c r="X42">
+        <v>-170</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>354</v>
+      </c>
+      <c r="D43">
+        <v>6387</v>
+      </c>
+      <c r="E43">
+        <v>3236</v>
+      </c>
+      <c r="F43">
+        <v>1762</v>
+      </c>
+      <c r="G43">
+        <v>8488</v>
+      </c>
+      <c r="H43">
+        <v>25595</v>
+      </c>
+      <c r="I43">
+        <v>2541</v>
+      </c>
+      <c r="J43">
+        <v>8163</v>
+      </c>
+      <c r="K43">
+        <v>375</v>
+      </c>
+      <c r="L43">
+        <v>-33</v>
+      </c>
+      <c r="M43">
+        <v>-152</v>
+      </c>
+      <c r="N43">
+        <v>4497</v>
+      </c>
+      <c r="O43">
+        <v>18020</v>
+      </c>
+      <c r="P43">
+        <v>8538</v>
+      </c>
+      <c r="Q43">
+        <v>-24</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7575</v>
+      </c>
+      <c r="U43">
+        <v>2049</v>
+      </c>
+      <c r="V43">
+        <v>514</v>
+      </c>
+      <c r="W43">
+        <v>-82</v>
+      </c>
+      <c r="X43">
+        <v>-280</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>219</v>
+      </c>
+      <c r="D44">
+        <v>6648</v>
+      </c>
+      <c r="E44">
+        <v>3318</v>
+      </c>
+      <c r="F44">
+        <v>1768</v>
+      </c>
+      <c r="G44">
+        <v>9416</v>
+      </c>
+      <c r="H44">
+        <v>26044</v>
+      </c>
+      <c r="I44">
+        <v>2575</v>
+      </c>
+      <c r="J44">
+        <v>7882</v>
+      </c>
+      <c r="K44">
+        <v>610</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4821</v>
+      </c>
+      <c r="O44">
+        <v>18075</v>
+      </c>
+      <c r="P44">
+        <v>8492</v>
+      </c>
+      <c r="Q44">
+        <v>350</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>7969</v>
+      </c>
+      <c r="U44">
+        <v>2399</v>
+      </c>
+      <c r="V44">
+        <v>648</v>
+      </c>
+      <c r="W44">
+        <v>-115</v>
+      </c>
+      <c r="X44">
+        <v>-81</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>468</v>
+      </c>
+      <c r="D45">
+        <v>6632</v>
+      </c>
+      <c r="E45">
+        <v>3232</v>
+      </c>
+      <c r="F45">
+        <v>1839</v>
+      </c>
+      <c r="G45">
+        <v>9935</v>
+      </c>
+      <c r="H45">
+        <v>25834</v>
+      </c>
+      <c r="I45">
+        <v>2494</v>
+      </c>
+      <c r="J45">
+        <v>7807</v>
+      </c>
+      <c r="K45">
+        <v>644</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4747</v>
+      </c>
+      <c r="O45">
+        <v>18172</v>
+      </c>
+      <c r="P45">
+        <v>8451</v>
+      </c>
+      <c r="Q45">
+        <v>323</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7662</v>
+      </c>
+      <c r="U45">
+        <v>2722</v>
+      </c>
+      <c r="V45">
+        <v>876</v>
+      </c>
+      <c r="W45">
+        <v>-115</v>
+      </c>
+      <c r="X45">
+        <v>-129</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>281</v>
+      </c>
+      <c r="D46">
+        <v>6367</v>
+      </c>
+      <c r="E46">
+        <v>3039</v>
+      </c>
+      <c r="F46">
+        <v>1705</v>
+      </c>
+      <c r="G46">
+        <v>10456</v>
+      </c>
+      <c r="H46">
+        <v>27018</v>
+      </c>
+      <c r="I46">
+        <v>2500</v>
+      </c>
+      <c r="J46">
+        <v>9194</v>
+      </c>
+      <c r="K46">
+        <v>279</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4738</v>
+      </c>
+      <c r="O46">
+        <v>20033</v>
+      </c>
+      <c r="P46">
+        <v>9913</v>
+      </c>
+      <c r="Q46">
+        <v>1272</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>61500</v>
+      </c>
+      <c r="T46">
+        <v>6985</v>
+      </c>
+      <c r="U46">
+        <v>1090</v>
+      </c>
+      <c r="V46">
+        <v>637</v>
+      </c>
+      <c r="W46">
+        <v>-115</v>
+      </c>
+      <c r="X46">
+        <v>1232</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>188</v>
+      </c>
+      <c r="D47">
+        <v>6655</v>
+      </c>
+      <c r="E47">
+        <v>3461</v>
+      </c>
+      <c r="F47">
+        <v>1691</v>
+      </c>
+      <c r="G47">
+        <v>9212</v>
+      </c>
+      <c r="H47">
+        <v>33849</v>
+      </c>
+      <c r="I47">
+        <v>2777</v>
+      </c>
+      <c r="J47">
+        <v>10905</v>
+      </c>
+      <c r="K47">
+        <v>738</v>
+      </c>
+      <c r="L47">
+        <v>-75</v>
+      </c>
+      <c r="M47">
+        <v>-516</v>
+      </c>
+      <c r="N47">
+        <v>5033</v>
+      </c>
+      <c r="O47">
+        <v>26356</v>
+      </c>
+      <c r="P47">
+        <v>11647</v>
+      </c>
+      <c r="Q47">
+        <v>-2706</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7493</v>
+      </c>
+      <c r="U47">
+        <v>1288</v>
+      </c>
+      <c r="V47">
+        <v>581</v>
+      </c>
+      <c r="W47">
+        <v>-115</v>
+      </c>
+      <c r="X47">
+        <v>848</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>7077</v>
+      </c>
+      <c r="E48">
+        <v>3389</v>
+      </c>
+      <c r="F48">
+        <v>1807</v>
+      </c>
+      <c r="G48">
+        <v>9281</v>
+      </c>
+      <c r="H48">
+        <v>33088</v>
+      </c>
+      <c r="I48">
+        <v>2696</v>
+      </c>
+      <c r="J48">
+        <v>10478</v>
+      </c>
+      <c r="K48">
+        <v>838</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>5227</v>
+      </c>
+      <c r="O48">
+        <v>25994</v>
+      </c>
+      <c r="P48">
+        <v>11319</v>
+      </c>
+      <c r="Q48">
+        <v>-60</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7094</v>
+      </c>
+      <c r="U48">
+        <v>1228</v>
+      </c>
+      <c r="V48">
+        <v>794</v>
+      </c>
+      <c r="W48">
+        <v>-114</v>
+      </c>
+      <c r="X48">
+        <v>-390</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>237</v>
+      </c>
+      <c r="D49">
+        <v>7026</v>
+      </c>
+      <c r="E49">
+        <v>3485</v>
+      </c>
+      <c r="F49">
+        <v>1886</v>
+      </c>
+      <c r="G49">
+        <v>8993</v>
+      </c>
+      <c r="H49">
+        <v>32561</v>
+      </c>
+      <c r="I49">
+        <v>2690</v>
+      </c>
+      <c r="J49">
+        <v>10048</v>
+      </c>
+      <c r="K49">
+        <v>413</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>4997</v>
+      </c>
+      <c r="O49">
+        <v>25216</v>
+      </c>
+      <c r="P49">
+        <v>10463</v>
+      </c>
+      <c r="Q49">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7345</v>
+      </c>
+      <c r="U49">
+        <v>386</v>
+      </c>
+      <c r="V49">
+        <v>879</v>
+      </c>
+      <c r="W49">
+        <v>-115</v>
+      </c>
+      <c r="X49">
+        <v>-938</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-45</v>
+      </c>
+      <c r="AA49">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>235</v>
+      </c>
+      <c r="D50">
+        <v>7075</v>
+      </c>
+      <c r="E50">
+        <v>3316</v>
+      </c>
+      <c r="F50">
+        <v>1882</v>
+      </c>
+      <c r="G50">
+        <v>8905</v>
+      </c>
+      <c r="H50">
+        <v>32153</v>
+      </c>
+      <c r="I50">
+        <v>2775</v>
+      </c>
+      <c r="J50">
+        <v>9696</v>
+      </c>
+      <c r="K50">
+        <v>255</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4998</v>
+      </c>
+      <c r="O50">
+        <v>25517</v>
+      </c>
+      <c r="P50">
+        <v>10141</v>
+      </c>
+      <c r="Q50">
+        <v>27</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>70000</v>
+      </c>
+      <c r="T50">
+        <v>6636</v>
+      </c>
+      <c r="U50">
+        <v>368</v>
+      </c>
+      <c r="V50">
+        <v>713</v>
+      </c>
+      <c r="W50">
+        <v>-132</v>
+      </c>
+      <c r="X50">
+        <v>-315</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>318</v>
+      </c>
+      <c r="D51">
+        <v>7090</v>
+      </c>
+      <c r="E51">
+        <v>3577</v>
+      </c>
+      <c r="F51">
+        <v>1870</v>
+      </c>
+      <c r="G51">
+        <v>8981</v>
+      </c>
+      <c r="H51">
+        <v>32698</v>
+      </c>
+      <c r="I51">
+        <v>2902</v>
+      </c>
+      <c r="J51">
+        <v>9495</v>
+      </c>
+      <c r="K51">
+        <v>727</v>
+      </c>
+      <c r="L51">
+        <v>-43</v>
+      </c>
+      <c r="M51">
+        <v>-79</v>
+      </c>
+      <c r="N51">
+        <v>5257</v>
+      </c>
+      <c r="O51">
+        <v>25564</v>
+      </c>
+      <c r="P51">
+        <v>10222</v>
+      </c>
+      <c r="Q51">
+        <v>-368</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7134</v>
+      </c>
+      <c r="U51">
+        <v>406</v>
+      </c>
+      <c r="V51">
+        <v>531</v>
+      </c>
+      <c r="W51">
+        <v>-132</v>
+      </c>
+      <c r="X51">
+        <v>-106</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>259</v>
+      </c>
+      <c r="D52">
+        <v>4570</v>
+      </c>
+      <c r="E52">
+        <v>3685</v>
+      </c>
+      <c r="F52">
+        <v>1596</v>
+      </c>
+      <c r="G52">
+        <v>9268</v>
+      </c>
+      <c r="H52">
+        <v>32545</v>
+      </c>
+      <c r="I52">
+        <v>2926</v>
+      </c>
+      <c r="J52">
+        <v>9057</v>
+      </c>
+      <c r="K52">
+        <v>1068</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>5677</v>
+      </c>
+      <c r="O52">
+        <v>25520</v>
+      </c>
+      <c r="P52">
+        <v>10125</v>
+      </c>
+      <c r="Q52">
+        <v>271</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7025</v>
+      </c>
+      <c r="U52">
+        <v>350</v>
+      </c>
+      <c r="V52">
+        <v>748</v>
+      </c>
+      <c r="W52">
+        <v>-134</v>
+      </c>
+      <c r="X52">
+        <v>-201</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>382</v>
+      </c>
+      <c r="D53">
+        <v>5975</v>
+      </c>
+      <c r="E53">
+        <v>3717</v>
+      </c>
+      <c r="F53">
+        <v>1927</v>
+      </c>
+      <c r="G53">
+        <v>9475</v>
+      </c>
+      <c r="H53">
+        <v>32589</v>
+      </c>
+      <c r="I53">
+        <v>2904</v>
+      </c>
+      <c r="J53">
+        <v>8900</v>
+      </c>
+      <c r="K53">
+        <v>783</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>5395</v>
+      </c>
+      <c r="O53">
+        <v>25047</v>
+      </c>
+      <c r="P53">
+        <v>9683</v>
+      </c>
+      <c r="Q53">
+        <v>741</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7542</v>
+      </c>
+      <c r="U53">
+        <v>401</v>
+      </c>
+      <c r="V53">
+        <v>712</v>
+      </c>
+      <c r="W53">
+        <v>-134</v>
+      </c>
+      <c r="X53">
+        <v>-543</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3497</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>9025</v>
+      </c>
+      <c r="H54">
+        <v>31528</v>
+      </c>
+      <c r="I54">
+        <v>2900</v>
+      </c>
+      <c r="J54">
+        <v>8828</v>
+      </c>
+      <c r="K54">
+        <v>386</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>5127</v>
+      </c>
+      <c r="O54">
+        <v>23081</v>
+      </c>
+      <c r="P54">
+        <v>9489</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>69000</v>
+      </c>
+      <c r="T54">
+        <v>8447</v>
+      </c>
+      <c r="U54">
+        <v>404</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-95</v>
+      </c>
+      <c r="D55">
+        <v>5724</v>
+      </c>
+      <c r="E55">
+        <v>3627</v>
+      </c>
+      <c r="F55">
+        <v>1690</v>
+      </c>
+      <c r="G55">
+        <v>8733</v>
+      </c>
+      <c r="H55">
+        <v>30695</v>
+      </c>
+      <c r="I55">
+        <v>2954</v>
+      </c>
+      <c r="J55">
+        <v>8868</v>
+      </c>
+      <c r="K55">
+        <v>482</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-163</v>
+      </c>
+      <c r="N55">
+        <v>5028</v>
+      </c>
+      <c r="O55">
+        <v>22781</v>
+      </c>
+      <c r="P55">
+        <v>9429</v>
+      </c>
+      <c r="Q55">
+        <v>-461</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7914</v>
+      </c>
+      <c r="U55">
+        <v>335</v>
+      </c>
+      <c r="V55">
+        <v>471</v>
+      </c>
+      <c r="W55">
+        <v>-153</v>
+      </c>
+      <c r="X55">
+        <v>-563</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>5899</v>
+      </c>
+      <c r="E56">
+        <v>3671</v>
+      </c>
+      <c r="F56">
+        <v>1839</v>
+      </c>
+      <c r="G56">
+        <v>8751</v>
+      </c>
+      <c r="H56">
+        <v>30802</v>
+      </c>
+      <c r="I56">
+        <v>2918</v>
+      </c>
+      <c r="J56">
+        <v>8997</v>
+      </c>
+      <c r="K56">
+        <v>845</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>5393</v>
+      </c>
+      <c r="O56">
+        <v>23111</v>
+      </c>
+      <c r="P56">
+        <v>9949</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7691</v>
+      </c>
+      <c r="U56">
+        <v>403</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>355</v>
+      </c>
+      <c r="D57">
+        <v>6051</v>
+      </c>
+      <c r="E57">
+        <v>3056</v>
+      </c>
+      <c r="F57">
+        <v>1996</v>
+      </c>
+      <c r="G57">
+        <v>8139</v>
+      </c>
+      <c r="H57">
+        <v>29403</v>
+      </c>
+      <c r="I57">
+        <v>2619</v>
+      </c>
+      <c r="J57">
+        <v>8989</v>
+      </c>
+      <c r="K57">
+        <v>617</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4870</v>
+      </c>
+      <c r="O57">
+        <v>22426</v>
+      </c>
+      <c r="P57">
+        <v>9713</v>
+      </c>
+      <c r="Q57">
+        <v>425</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6977</v>
+      </c>
+      <c r="U57">
+        <v>473</v>
+      </c>
+      <c r="V57">
+        <v>933</v>
+      </c>
+      <c r="W57">
+        <v>-149</v>
+      </c>
+      <c r="X57">
+        <v>-629</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2860</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>7959</v>
+      </c>
+      <c r="H58">
+        <v>28684</v>
+      </c>
+      <c r="I58">
+        <v>2664</v>
+      </c>
+      <c r="J58">
+        <v>8631</v>
+      </c>
+      <c r="K58">
+        <v>424</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4909</v>
+      </c>
+      <c r="O58">
+        <v>23421</v>
+      </c>
+      <c r="P58">
+        <v>9373</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>58000</v>
+      </c>
+      <c r="T58">
+        <v>5263</v>
+      </c>
+      <c r="U58">
+        <v>401</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>313</v>
+      </c>
+      <c r="D59">
+        <v>5517</v>
+      </c>
+      <c r="E59">
+        <v>2821</v>
+      </c>
+      <c r="F59">
+        <v>1673</v>
+      </c>
+      <c r="G59">
+        <v>7660</v>
+      </c>
+      <c r="H59">
+        <v>27967</v>
+      </c>
+      <c r="I59">
+        <v>2678</v>
+      </c>
+      <c r="J59">
+        <v>8461</v>
+      </c>
+      <c r="K59">
+        <v>557</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-280</v>
+      </c>
+      <c r="N59">
+        <v>4776</v>
+      </c>
+      <c r="O59">
+        <v>22964</v>
+      </c>
+      <c r="P59">
+        <v>9125</v>
+      </c>
+      <c r="Q59">
+        <v>-305</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5003</v>
+      </c>
+      <c r="U59">
+        <v>342</v>
+      </c>
+      <c r="V59">
+        <v>638</v>
+      </c>
+      <c r="W59">
+        <v>-169</v>
+      </c>
+      <c r="X59">
+        <v>-546</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>227</v>
+      </c>
+      <c r="D60">
+        <v>5714</v>
+      </c>
+      <c r="E60">
+        <v>2878</v>
+      </c>
+      <c r="F60">
+        <v>1746</v>
+      </c>
+      <c r="G60">
+        <v>7727</v>
+      </c>
+      <c r="H60">
+        <v>28178</v>
+      </c>
+      <c r="I60">
+        <v>2744</v>
+      </c>
+      <c r="J60">
+        <v>9017</v>
+      </c>
+      <c r="K60">
+        <v>802</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>5104</v>
+      </c>
+      <c r="O60">
+        <v>23150</v>
+      </c>
+      <c r="P60">
+        <v>9926</v>
+      </c>
+      <c r="Q60">
+        <v>14</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5028</v>
+      </c>
+      <c r="U60">
+        <v>393</v>
+      </c>
+      <c r="V60">
+        <v>115</v>
+      </c>
+      <c r="W60">
+        <v>-168</v>
+      </c>
+      <c r="X60">
+        <v>255</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>220</v>
+      </c>
+      <c r="D61">
+        <v>5691</v>
+      </c>
+      <c r="E61">
+        <v>2631</v>
+      </c>
+      <c r="F61">
+        <v>1800</v>
+      </c>
+      <c r="G61">
+        <v>12754</v>
+      </c>
+      <c r="H61">
+        <v>31981</v>
+      </c>
+      <c r="I61">
+        <v>2096</v>
+      </c>
+      <c r="J61">
+        <v>8887</v>
+      </c>
+      <c r="K61">
+        <v>753</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>9547</v>
+      </c>
+      <c r="O61">
+        <v>27511</v>
+      </c>
+      <c r="P61">
+        <v>9640</v>
+      </c>
+      <c r="Q61">
+        <v>-486</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4470</v>
+      </c>
+      <c r="U61">
+        <v>493</v>
+      </c>
+      <c r="V61">
+        <v>837</v>
+      </c>
+      <c r="W61">
+        <v>-166</v>
+      </c>
+      <c r="X61">
+        <v>-673</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-198</v>
+      </c>
+      <c r="AA61">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>178</v>
+      </c>
+      <c r="D62">
+        <v>5443</v>
+      </c>
+      <c r="E62">
+        <v>2480</v>
+      </c>
+      <c r="F62">
+        <v>1678</v>
+      </c>
+      <c r="G62">
+        <v>6477</v>
+      </c>
+      <c r="H62">
+        <v>30531</v>
+      </c>
+      <c r="I62">
+        <v>2078</v>
+      </c>
+      <c r="J62">
+        <v>8844</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3924</v>
+      </c>
+      <c r="O62">
+        <v>26622</v>
+      </c>
+      <c r="P62">
+        <v>9270</v>
+      </c>
+      <c r="Q62">
+        <v>-54</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>56000</v>
+      </c>
+      <c r="T62">
+        <v>3909</v>
+      </c>
+      <c r="U62">
+        <v>312</v>
+      </c>
+      <c r="V62">
+        <v>990</v>
+      </c>
+      <c r="W62">
+        <v>-182</v>
+      </c>
+      <c r="X62">
+        <v>-637</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>334</v>
+      </c>
+      <c r="D63">
+        <v>5110</v>
+      </c>
+      <c r="E63">
+        <v>2418</v>
+      </c>
+      <c r="F63">
+        <v>1499</v>
+      </c>
+      <c r="G63">
+        <v>6792</v>
+      </c>
+      <c r="H63">
+        <v>31043</v>
+      </c>
+      <c r="I63">
+        <v>2065</v>
+      </c>
+      <c r="J63">
+        <v>8824</v>
+      </c>
+      <c r="K63">
+        <v>551</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-322</v>
+      </c>
+      <c r="N63">
+        <v>4098</v>
+      </c>
+      <c r="O63">
+        <v>26783</v>
+      </c>
+      <c r="P63">
+        <v>9375</v>
+      </c>
+      <c r="Q63">
+        <v>105</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4260</v>
+      </c>
+      <c r="U63">
+        <v>276</v>
+      </c>
+      <c r="V63">
+        <v>620</v>
+      </c>
+      <c r="W63">
+        <v>-181</v>
+      </c>
+      <c r="X63">
+        <v>-164</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>5322</v>
+      </c>
+      <c r="E64">
+        <v>2573</v>
+      </c>
+      <c r="F64">
+        <v>1210</v>
+      </c>
+      <c r="G64">
+        <v>6871</v>
+      </c>
+      <c r="H64">
+        <v>31392</v>
+      </c>
+      <c r="I64">
+        <v>2016</v>
+      </c>
+      <c r="J64">
+        <v>8820</v>
+      </c>
+      <c r="K64">
+        <v>626</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4082</v>
+      </c>
+      <c r="O64">
+        <v>27346</v>
+      </c>
+      <c r="P64">
+        <v>9463</v>
+      </c>
+      <c r="Q64">
+        <v>99</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4046</v>
+      </c>
+      <c r="U64">
+        <v>383</v>
+      </c>
+      <c r="V64">
+        <v>605</v>
+      </c>
+      <c r="W64">
+        <v>-181</v>
+      </c>
+      <c r="X64">
+        <v>-190</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>312</v>
+      </c>
+      <c r="D65">
+        <v>5266</v>
+      </c>
+      <c r="E65">
+        <v>2594</v>
+      </c>
+      <c r="F65">
+        <v>1644</v>
+      </c>
+      <c r="G65">
+        <v>8103</v>
+      </c>
+      <c r="H65">
+        <v>32601</v>
+      </c>
+      <c r="I65">
+        <v>2031</v>
+      </c>
+      <c r="J65">
+        <v>10823</v>
+      </c>
+      <c r="K65">
+        <v>78</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3541</v>
+      </c>
+      <c r="O65">
+        <v>28372</v>
+      </c>
+      <c r="P65">
+        <v>10901</v>
+      </c>
+      <c r="Q65">
+        <v>1308</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4229</v>
+      </c>
+      <c r="U65">
+        <v>462</v>
+      </c>
+      <c r="V65">
+        <v>341</v>
+      </c>
+      <c r="W65">
+        <v>-181</v>
+      </c>
+      <c r="X65">
+        <v>1232</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>2612</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>6670</v>
+      </c>
+      <c r="H66">
+        <v>33093</v>
+      </c>
+      <c r="I66">
+        <v>2199</v>
+      </c>
+      <c r="J66">
+        <v>11075</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4069</v>
+      </c>
+      <c r="O66">
+        <v>28734</v>
+      </c>
+      <c r="P66">
+        <v>11314</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>55000</v>
+      </c>
+      <c r="T66">
+        <v>4359</v>
+      </c>
+      <c r="U66">
+        <v>1033</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>209</v>
+      </c>
+      <c r="D67">
+        <v>5132</v>
+      </c>
+      <c r="E67">
+        <v>2832</v>
+      </c>
+      <c r="F67">
+        <v>1494</v>
+      </c>
+      <c r="G67">
+        <v>6721</v>
+      </c>
+      <c r="H67">
+        <v>33301</v>
+      </c>
+      <c r="I67">
+        <v>2380</v>
+      </c>
+      <c r="J67">
+        <v>10823</v>
+      </c>
+      <c r="K67">
+        <v>310</v>
+      </c>
+      <c r="L67">
+        <v>-6</v>
+      </c>
+      <c r="M67">
+        <v>-227</v>
+      </c>
+      <c r="N67">
+        <v>4267</v>
+      </c>
+      <c r="O67">
+        <v>28707</v>
+      </c>
+      <c r="P67">
+        <v>11277</v>
+      </c>
+      <c r="Q67">
+        <v>-35</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4594</v>
+      </c>
+      <c r="U67">
+        <v>271</v>
+      </c>
+      <c r="V67">
+        <v>633</v>
+      </c>
+      <c r="W67">
+        <v>-191</v>
+      </c>
+      <c r="X67">
+        <v>-284</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>5383</v>
+      </c>
+      <c r="E68">
+        <v>2996</v>
+      </c>
+      <c r="F68">
+        <v>1634</v>
+      </c>
+      <c r="G68">
+        <v>7237</v>
+      </c>
+      <c r="H68">
+        <v>33877</v>
+      </c>
+      <c r="I68">
+        <v>2362</v>
+      </c>
+      <c r="J68">
+        <v>10392</v>
+      </c>
+      <c r="K68">
+        <v>240</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5002</v>
+      </c>
+      <c r="O68">
+        <v>29312</v>
+      </c>
+      <c r="P68">
+        <v>11216</v>
+      </c>
+      <c r="Q68">
+        <v>43</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4565</v>
+      </c>
+      <c r="U68">
+        <v>288</v>
+      </c>
+      <c r="V68">
+        <v>645</v>
+      </c>
+      <c r="W68">
+        <v>-191</v>
+      </c>
+      <c r="X68">
+        <v>-266</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>395</v>
+      </c>
+      <c r="D69">
+        <v>5517</v>
+      </c>
+      <c r="E69">
+        <v>3098</v>
+      </c>
+      <c r="F69">
+        <v>1804</v>
+      </c>
+      <c r="G69">
+        <v>7211</v>
+      </c>
+      <c r="H69">
+        <v>33813</v>
+      </c>
+      <c r="I69">
+        <v>2408</v>
+      </c>
+      <c r="J69">
+        <v>11373</v>
+      </c>
+      <c r="K69">
+        <v>445</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4869</v>
+      </c>
+      <c r="O69">
+        <v>28880</v>
+      </c>
+      <c r="P69">
+        <v>12331</v>
+      </c>
+      <c r="Q69">
+        <v>-43</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4933</v>
+      </c>
+      <c r="U69">
+        <v>335</v>
+      </c>
+      <c r="V69">
+        <v>-709</v>
+      </c>
+      <c r="W69">
+        <v>-191</v>
+      </c>
+      <c r="X69">
+        <v>930</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>3017</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>8277</v>
+      </c>
+      <c r="H70">
+        <v>33903</v>
+      </c>
+      <c r="I70">
+        <v>2458</v>
+      </c>
+      <c r="J70">
+        <v>10846</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5102</v>
+      </c>
+      <c r="O70">
+        <v>27362</v>
+      </c>
+      <c r="P70">
+        <v>11157</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>56000</v>
+      </c>
+      <c r="T70">
+        <v>6541</v>
+      </c>
+      <c r="U70">
+        <v>1018</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>729</v>
+      </c>
+      <c r="D71">
+        <v>5621</v>
+      </c>
+      <c r="E71">
+        <v>3505</v>
+      </c>
+      <c r="F71">
+        <v>1673</v>
+      </c>
+      <c r="G71">
+        <v>7260</v>
+      </c>
+      <c r="H71">
+        <v>34030</v>
+      </c>
+      <c r="I71">
+        <v>2534</v>
+      </c>
+      <c r="J71">
+        <v>10759</v>
+      </c>
+      <c r="K71">
+        <v>375</v>
+      </c>
+      <c r="L71">
+        <v>-17</v>
+      </c>
+      <c r="M71">
+        <v>-34</v>
+      </c>
+      <c r="N71">
+        <v>4465</v>
+      </c>
+      <c r="O71">
+        <v>26765</v>
+      </c>
+      <c r="P71">
+        <v>11346</v>
+      </c>
+      <c r="Q71">
+        <v>123</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7265</v>
+      </c>
+      <c r="U71">
+        <v>1141</v>
+      </c>
+      <c r="V71">
+        <v>663</v>
+      </c>
+      <c r="W71">
+        <v>-197</v>
+      </c>
+      <c r="X71">
+        <v>-56</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>405</v>
+      </c>
+      <c r="D72">
+        <v>5833</v>
+      </c>
+      <c r="E72">
+        <v>3611</v>
+      </c>
+      <c r="F72">
+        <v>1911</v>
+      </c>
+      <c r="G72">
+        <v>7272</v>
+      </c>
+      <c r="H72">
+        <v>33796</v>
+      </c>
+      <c r="I72">
+        <v>2478</v>
+      </c>
+      <c r="J72">
+        <v>10805</v>
+      </c>
+      <c r="K72">
+        <v>545</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4618</v>
+      </c>
+      <c r="O72">
+        <v>26932</v>
+      </c>
+      <c r="P72">
+        <v>11489</v>
+      </c>
+      <c r="Q72">
+        <v>-68</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6864</v>
+      </c>
+      <c r="U72">
+        <v>1073</v>
+      </c>
+      <c r="V72">
+        <v>801</v>
+      </c>
+      <c r="W72">
+        <v>-196</v>
+      </c>
+      <c r="X72">
+        <v>-354</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>562</v>
+      </c>
+      <c r="D73">
+        <v>5901</v>
+      </c>
+      <c r="E73">
+        <v>3716</v>
+      </c>
+      <c r="F73">
+        <v>2014</v>
+      </c>
+      <c r="G73">
+        <v>7318</v>
+      </c>
+      <c r="H73">
+        <v>33803</v>
+      </c>
+      <c r="I73">
+        <v>2510</v>
+      </c>
+      <c r="J73">
+        <v>10700</v>
+      </c>
+      <c r="K73">
+        <v>400</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4603</v>
+      </c>
+      <c r="O73">
+        <v>26745</v>
+      </c>
+      <c r="P73">
+        <v>11255</v>
+      </c>
+      <c r="Q73">
+        <v>-47</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7058</v>
+      </c>
+      <c r="U73">
+        <v>1026</v>
+      </c>
+      <c r="V73">
+        <v>941</v>
+      </c>
+      <c r="W73">
+        <v>-195</v>
+      </c>
+      <c r="X73">
+        <v>-636</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>316</v>
+      </c>
+      <c r="D74">
+        <v>5951</v>
+      </c>
+      <c r="E74">
+        <v>3644</v>
+      </c>
+      <c r="F74">
+        <v>2153</v>
+      </c>
+      <c r="G74">
+        <v>6996</v>
+      </c>
+      <c r="H74">
+        <v>33576</v>
+      </c>
+      <c r="I74">
+        <v>2413</v>
+      </c>
+      <c r="J74">
+        <v>9952</v>
+      </c>
+      <c r="K74">
+        <v>465</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4694</v>
+      </c>
+      <c r="O74">
+        <v>26193</v>
+      </c>
+      <c r="P74">
+        <v>10654</v>
+      </c>
+      <c r="Q74">
+        <v>-437</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>53000</v>
+      </c>
+      <c r="T74">
+        <v>7383</v>
+      </c>
+      <c r="U74">
+        <v>589</v>
+      </c>
+      <c r="V74">
+        <v>821</v>
+      </c>
+      <c r="W74">
+        <v>-201</v>
+      </c>
+      <c r="X74">
+        <v>-1000</v>
+      </c>
+      <c r="Y74">
+        <v>63</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>424</v>
+      </c>
+      <c r="D75">
+        <v>5643</v>
+      </c>
+      <c r="E75">
+        <v>3596</v>
+      </c>
+      <c r="F75">
+        <v>1714</v>
+      </c>
+      <c r="G75">
+        <v>7062</v>
+      </c>
+      <c r="H75">
+        <v>34178</v>
+      </c>
+      <c r="I75">
+        <v>2518</v>
+      </c>
+      <c r="J75">
+        <v>9875</v>
+      </c>
+      <c r="K75">
+        <v>530</v>
+      </c>
+      <c r="L75">
+        <v>-25</v>
+      </c>
+      <c r="M75">
+        <v>-142</v>
+      </c>
+      <c r="N75">
+        <v>4953</v>
+      </c>
+      <c r="O75">
+        <v>26709</v>
+      </c>
+      <c r="P75">
+        <v>11192</v>
+      </c>
+      <c r="Q75">
+        <v>52</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>7469</v>
+      </c>
+      <c r="U75">
+        <v>641</v>
+      </c>
+      <c r="V75">
+        <v>733</v>
+      </c>
+      <c r="W75">
+        <v>-201</v>
+      </c>
+      <c r="X75">
+        <v>-389</v>
+      </c>
+      <c r="Y75">
+        <v>371</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>292</v>
+      </c>
+      <c r="D76">
+        <v>5667</v>
+      </c>
+      <c r="E76">
+        <v>3569</v>
+      </c>
+      <c r="F76">
+        <v>1766</v>
+      </c>
+      <c r="G76">
+        <v>7388</v>
+      </c>
+      <c r="H76">
+        <v>34347</v>
+      </c>
+      <c r="I76">
+        <v>2498</v>
+      </c>
+      <c r="J76">
+        <v>9962</v>
+      </c>
+      <c r="K76">
+        <v>535</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>5049</v>
+      </c>
+      <c r="O76">
+        <v>26848</v>
+      </c>
+      <c r="P76">
+        <v>11138</v>
+      </c>
+      <c r="Q76">
+        <v>146</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>7499</v>
+      </c>
+      <c r="U76">
+        <v>787</v>
+      </c>
+      <c r="V76">
+        <v>1067</v>
+      </c>
+      <c r="W76">
+        <v>-197</v>
+      </c>
+      <c r="X76">
+        <v>-487</v>
+      </c>
+      <c r="Y76">
+        <v>369</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>344</v>
+      </c>
+      <c r="D77">
+        <v>5568</v>
+      </c>
+      <c r="E77">
+        <v>3443</v>
+      </c>
+      <c r="F77">
+        <v>1796</v>
+      </c>
+      <c r="G77">
+        <v>7051</v>
+      </c>
+      <c r="H77">
+        <v>33848</v>
+      </c>
+      <c r="I77">
+        <v>2349</v>
+      </c>
+      <c r="J77">
+        <v>9866</v>
+      </c>
+      <c r="K77">
+        <v>245</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4729</v>
+      </c>
+      <c r="O77">
+        <v>26392</v>
+      </c>
+      <c r="P77">
+        <v>10787</v>
+      </c>
+      <c r="Q77">
+        <v>-90</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>7456</v>
+      </c>
+      <c r="U77">
+        <v>697</v>
+      </c>
+      <c r="V77">
+        <v>882</v>
+      </c>
+      <c r="W77">
+        <v>-197</v>
+      </c>
+      <c r="X77">
+        <v>-671</v>
+      </c>
+      <c r="Y77">
+        <v>383</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>165</v>
+      </c>
+      <c r="D78">
+        <v>5498</v>
+      </c>
+      <c r="E78">
+        <v>3413</v>
+      </c>
+      <c r="F78">
+        <v>1832</v>
+      </c>
+      <c r="G78">
+        <v>6639</v>
+      </c>
+      <c r="H78">
+        <v>33471</v>
+      </c>
+      <c r="I78">
+        <v>2423</v>
+      </c>
+      <c r="J78">
+        <v>9509</v>
+      </c>
+      <c r="K78">
+        <v>30</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8646</v>
+      </c>
+      <c r="O78">
+        <v>25753</v>
+      </c>
+      <c r="P78">
+        <v>10203</v>
+      </c>
+      <c r="Q78">
+        <v>-186</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>51000</v>
+      </c>
+      <c r="T78">
+        <v>7718</v>
+      </c>
+      <c r="U78">
+        <v>511</v>
+      </c>
+      <c r="V78">
+        <v>928</v>
+      </c>
+      <c r="W78">
+        <v>-201</v>
+      </c>
+      <c r="X78">
+        <v>-842</v>
+      </c>
+      <c r="Y78">
+        <v>392</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-141</v>
+      </c>
+      <c r="D79">
+        <v>5352</v>
+      </c>
+      <c r="E79">
+        <v>3382</v>
+      </c>
+      <c r="F79">
+        <v>1606</v>
+      </c>
+      <c r="G79">
+        <v>7215</v>
+      </c>
+      <c r="H79">
+        <v>33215</v>
+      </c>
+      <c r="I79">
+        <v>2379</v>
+      </c>
+      <c r="J79">
+        <v>9476</v>
+      </c>
+      <c r="K79">
+        <v>557</v>
+      </c>
+      <c r="L79">
+        <v>-9</v>
+      </c>
+      <c r="M79">
+        <v>-136</v>
+      </c>
+      <c r="N79">
+        <v>9342</v>
+      </c>
+      <c r="O79">
+        <v>26354</v>
+      </c>
+      <c r="P79">
+        <v>10650</v>
+      </c>
+      <c r="Q79">
+        <v>728</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>50000</v>
+      </c>
+      <c r="T79">
+        <v>6861</v>
+      </c>
+      <c r="U79">
+        <v>1239</v>
+      </c>
+      <c r="V79">
+        <v>649</v>
+      </c>
+      <c r="W79">
+        <v>-202</v>
+      </c>
+      <c r="X79">
+        <v>165</v>
+      </c>
+      <c r="Y79">
+        <v>378</v>
+      </c>
+      <c r="Z79">
+        <v>250</v>
+      </c>
+      <c r="AA79">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>266</v>
+      </c>
+      <c r="D80">
+        <v>4866</v>
+      </c>
+      <c r="E80">
+        <v>3173</v>
+      </c>
+      <c r="F80">
+        <v>1439</v>
+      </c>
+      <c r="G80">
+        <v>6599</v>
+      </c>
+      <c r="H80">
+        <v>32519</v>
+      </c>
+      <c r="I80">
+        <v>2206</v>
+      </c>
+      <c r="J80">
+        <v>9348</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>8330</v>
+      </c>
+      <c r="O80">
+        <v>25459</v>
+      </c>
+      <c r="P80">
+        <v>9893</v>
+      </c>
+      <c r="Q80">
+        <v>-392</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>7060</v>
+      </c>
+      <c r="U80">
+        <v>847</v>
+      </c>
+      <c r="V80">
+        <v>890</v>
+      </c>
+      <c r="W80">
+        <v>-201</v>
+      </c>
+      <c r="X80">
+        <v>-982</v>
+      </c>
+      <c r="Y80">
+        <v>378</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>204</v>
+      </c>
+      <c r="D81">
+        <v>5123</v>
+      </c>
+      <c r="E81">
+        <v>3177</v>
+      </c>
+      <c r="F81">
+        <v>1582</v>
+      </c>
+      <c r="G81">
+        <v>11288</v>
+      </c>
+      <c r="H81">
+        <v>31840</v>
+      </c>
+      <c r="I81">
+        <v>2226</v>
+      </c>
+      <c r="J81">
+        <v>8442</v>
+      </c>
+      <c r="K81">
+        <v>140</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>8476</v>
+      </c>
+      <c r="O81">
+        <v>24744</v>
+      </c>
+      <c r="P81">
+        <v>9131</v>
+      </c>
+      <c r="Q81">
+        <v>-169</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>7096</v>
+      </c>
+      <c r="U81">
+        <v>678</v>
+      </c>
+      <c r="V81">
+        <v>735</v>
+      </c>
+      <c r="W81">
+        <v>-202</v>
+      </c>
+      <c r="X81">
+        <v>-1042</v>
+      </c>
+      <c r="Y81">
+        <v>373</v>
+      </c>
+      <c r="Z81">
+        <v>250</v>
+      </c>
+      <c r="AA81">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>153</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5239</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>3131</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1580</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>11236</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>31718</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2320</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7982</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>8284</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>23850</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8556</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-83</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>49300</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>7868</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>595</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>789</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-201</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-841</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>397</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>153</v>
       </c>
     </row>
